--- a/medicine/Enfance/Jürg_Schubiger/Jürg_Schubiger.xlsx
+++ b/medicine/Enfance/Jürg_Schubiger/Jürg_Schubiger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>J%C3%BCrg_Schubiger</t>
+          <t>Jürg_Schubiger</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jürg Schubiger (14 octobre 1936 à Zurich - 15 septembre 2014) est un thérapeute et auteur suisse de livres pour enfants. Il est lauréat du prestigieux prix international, le Prix Hans-Christian-Andersen, dans la catégorie Écriture, en 2008.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>J%C3%BCrg_Schubiger</t>
+          <t>Jürg_Schubiger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Œuvres traduites en français</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'où vient le nom des animaux, illustré par Rotraut Susanne Berner, La Joie de lire, 1997.
 Quand le monde était jeune, illustré par Rotraut Susanne Berner, La Joie de lire, 1997.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>J%C3%BCrg_Schubiger</t>
+          <t>Jürg_Schubiger</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1996 : (international) « Honour List »[2] de l'IBBY pour Quand le monde était jeune, illustré par Rotraut Susanne Berner
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1996 : (international) « Honour List » de l'IBBY pour Quand le monde était jeune, illustré par Rotraut Susanne Berner
 2008 : Prix Hans-Christian-Andersen catégorie Écriture</t>
         </is>
       </c>
